--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="13.64453125" customWidth="true"/>
-    <col min="5" max="5" width="14.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="14.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="14.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20698652441601209</v>
+        <v>0.3202937468635903</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.42299212837205524</v>
+        <v>0.39471976047100099</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.11003643830236784</v>
+        <v>0.01158928752988631</v>
       </c>
       <c r="E3" s="0">
-        <v>0.014349172648401036</v>
+        <v>0.0013830185392392932</v>
       </c>
       <c r="F3" s="0">
-        <v>0.043045815611274477</v>
+        <v>0.043142270675456743</v>
       </c>
       <c r="G3" s="0">
-        <v>0.026560371092987086</v>
+        <v>-0.0031577593848839897</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0014884663389913592</v>
+        <v>-0.0046609922520669794</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0022805767496589576</v>
+        <v>-0.015199185039373822</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.018244763212362375</v>
+        <v>0.041329373539153114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.44165324579581039</v>
+        <v>0.44646803410181601</v>
       </c>
       <c r="C4" s="0">
-        <v>0.03802654972979614</v>
+        <v>0.072440932930473406</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0082671136504321417</v>
+        <v>-0.012850798422804224</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.001088050835578372</v>
+        <v>-0.0012976500907280778</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00074488530210961514</v>
+        <v>-0.002169168135346569</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.013915043494216612</v>
+        <v>-0.014742260343399205</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0013624058252295985</v>
+        <v>0.0042168182980746437</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0045222961973060971</v>
+        <v>0.0061503993945450364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.27123609707112079</v>
+        <v>0.49185478736275823</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.27161091737287779</v>
+        <v>-0.018768578974788081</v>
       </c>
       <c r="E5" s="0">
-        <v>0.044539596637423837</v>
+        <v>0.030885335872342313</v>
       </c>
       <c r="F5" s="0">
-        <v>0.020842771249615179</v>
+        <v>0.008786834581187019</v>
       </c>
       <c r="G5" s="0">
-        <v>0.048320789356862529</v>
+        <v>0.034028315846969165</v>
       </c>
       <c r="H5" s="0">
-        <v>0.018100013088770316</v>
+        <v>-0.0012449954533521148</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.001769616416302068</v>
+        <v>-0.012732532201646067</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.028839785268181595</v>
+        <v>0.0044323735902299655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37088432872744925</v>
+        <v>0.19559778858026991</v>
       </c>
       <c r="C6" s="0">
-        <v>0.04710759584870651</v>
+        <v>-0.27714261772162363</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.01260873418642567</v>
+        <v>0.0029954044545659358</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0055711340246566259</v>
+        <v>-0.0017806262302004811</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0038691715475259818</v>
+        <v>-0.0080460631172253883</v>
       </c>
       <c r="I6" s="0">
-        <v>0.048243725192632828</v>
+        <v>-0.016769881716691633</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.017752129143619177</v>
+        <v>0.0044867855486868669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46156250280248101</v>
+        <v>0.12052364050151959</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.078682330629463448</v>
+        <v>0.16683555909117609</v>
       </c>
       <c r="E7" s="0">
-        <v>0.086381269656193915</v>
+        <v>-0.0024462840610124043</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.1111535157676368</v>
+        <v>-0.17964305608411621</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0068198517569174619</v>
+        <v>-0.018611015881496527</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0024672514469910273</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-9.4776615158020906e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.032510265862242815</v>
+        <v>-0.041209351143301265</v>
       </c>
     </row>
     <row r="8">
